--- a/inst/results/Data_analysis/7.contamination_profile.xlsx
+++ b/inst/results/Data_analysis/7.contamination_profile.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -641,10 +641,10 @@
         </is>
       </c>
       <c r="B22">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="23">
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="B23">
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="C23">
-        <v>7.8</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -680,10 +680,10 @@
         </is>
       </c>
       <c r="B25">
-        <v>7.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C25">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="26">
@@ -693,10 +693,10 @@
         </is>
       </c>
       <c r="B26">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="C26">
-        <v>1.9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="B27">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="C27">
         <v>1.9</v>
@@ -719,10 +719,10 @@
         </is>
       </c>
       <c r="B28">
-        <v>10.5</v>
+        <v>12.1</v>
       </c>
       <c r="C28">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="29">
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="C29">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="30">
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B30">
-        <v>37.6</v>
+        <v>44.5</v>
       </c>
       <c r="C30">
-        <v>56.5</v>
+        <v>58.6</v>
       </c>
     </row>
     <row r="31">
@@ -758,10 +758,10 @@
         </is>
       </c>
       <c r="B31">
-        <v>5.5</v>
+        <v>6.3</v>
       </c>
       <c r="C31">
-        <v>8.9</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="32">
@@ -784,49 +784,10 @@
         </is>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="C33">
         <v>0.3</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>a-HBCDD</t>
-        </is>
-      </c>
-      <c r="B34">
-        <v>30.2</v>
-      </c>
-      <c r="C34">
-        <v>64.2</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>b-HBCDD</t>
-        </is>
-      </c>
-      <c r="B35">
-        <v>12.2</v>
-      </c>
-      <c r="C35">
-        <v>6.4</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>g-HBCDD</t>
-        </is>
-      </c>
-      <c r="B36">
-        <v>57.6</v>
-      </c>
-      <c r="C36">
-        <v>29.4</v>
       </c>
     </row>
   </sheetData>

--- a/inst/results/Data_analysis/7.contamination_profile.xlsx
+++ b/inst/results/Data_analysis/7.contamination_profile.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -624,14 +624,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PFPeA</t>
+          <t>PFOA</t>
         </is>
       </c>
       <c r="B21">
-        <v>4.2</v>
+        <v>14.5</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -641,10 +641,10 @@
         </is>
       </c>
       <c r="B22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>7.9</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="23">
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="B23">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="C23">
-        <v>8.1</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -680,10 +680,10 @@
         </is>
       </c>
       <c r="B25">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="C25">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="26">
@@ -693,10 +693,10 @@
         </is>
       </c>
       <c r="B26">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="27">
@@ -706,10 +706,10 @@
         </is>
       </c>
       <c r="B27">
-        <v>6.1</v>
+        <v>5.3</v>
       </c>
       <c r="C27">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="28">
@@ -719,10 +719,10 @@
         </is>
       </c>
       <c r="B28">
-        <v>12.1</v>
+        <v>10.4</v>
       </c>
       <c r="C28">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="29">
@@ -732,10 +732,10 @@
         </is>
       </c>
       <c r="B29">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="30">
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B30">
-        <v>44.5</v>
+        <v>39</v>
       </c>
       <c r="C30">
-        <v>58.6</v>
+        <v>54.5</v>
       </c>
     </row>
     <row r="31">
@@ -758,35 +758,22 @@
         </is>
       </c>
       <c r="B31">
-        <v>6.3</v>
+        <v>5.3</v>
       </c>
       <c r="C31">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6:2 FTSA</t>
+          <t>8:2 FTSA</t>
         </is>
       </c>
       <c r="B32">
-        <v>10.2</v>
+        <v>1.1</v>
       </c>
       <c r="C32">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>8:2 FTSA</t>
-        </is>
-      </c>
-      <c r="B33">
-        <v>1.2</v>
-      </c>
-      <c r="C33">
         <v>0.3</v>
       </c>
     </row>
